--- a/src/public/templates/envelope_template.xlsx
+++ b/src/public/templates/envelope_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27021"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74002C7-D76D-40D9-8AA9-4CE28779C3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Конверт мал." sheetId="2" r:id="rId1"/>
@@ -30,7 +31,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Конверт мал.'!$A$1:$CI$19</definedName>
     <definedName name="тыс">{0,"тысячz";1,"тысячаz";2,"тысячиz";5,"тысячz"}</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191028" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +84,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">ул. Буденного, д. 17/1,  </t>
+    <t xml:space="preserve">ул.Буденного, д.17-1,  </t>
   </si>
   <si>
     <t>г. Брест</t>
@@ -76,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -176,56 +193,52 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -352,7 +365,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Источники данных"/>
@@ -1436,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1444,73 +1457,70 @@
   <dimension ref="A1:CQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BT28" sqref="BT28"/>
+      <selection activeCell="CQ4" sqref="CQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="0.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" style="6" customWidth="1"/>
-    <col min="6" max="87" width="0.85546875" style="6" customWidth="1"/>
-    <col min="88" max="91" width="0.85546875" style="20" customWidth="1"/>
-    <col min="92" max="92" width="0.85546875" style="5" customWidth="1"/>
-    <col min="93" max="93" width="0.85546875" style="6" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="4" width="0.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" style="3" customWidth="1"/>
+    <col min="6" max="93" width="0.85546875" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="21" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
@@ -1546,279 +1556,279 @@
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
       <c r="CI1" s="1"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
     </row>
     <row r="2" spans="1:95" ht="21" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="11" t="str">
         <f>'[1]Источники данных'!C17</f>
         <v>ул.</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="9" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="10" t="s">
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="11" t="s">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="13" t="s">
+      <c r="BG2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="13"/>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="13"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
-      <c r="BY2" s="13"/>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
-      <c r="CB2" s="13"/>
-      <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="13"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
     </row>
     <row r="3" spans="1:95">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="str">
+      <c r="K3" s="11" t="str">
         <f>'[1]Источники данных'!C23</f>
         <v>г.</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
-      <c r="BG3" s="13" t="s">
+      <c r="BG3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
-      <c r="BO3" s="13"/>
-      <c r="BP3" s="13"/>
-      <c r="BQ3" s="13"/>
-      <c r="BR3" s="13"/>
-      <c r="BS3" s="13"/>
-      <c r="BT3" s="13"/>
-      <c r="BU3" s="13"/>
-      <c r="BV3" s="13"/>
-      <c r="BW3" s="13"/>
-      <c r="BX3" s="13"/>
-      <c r="BY3" s="13"/>
-      <c r="BZ3" s="13"/>
-      <c r="CA3" s="13"/>
-      <c r="CB3" s="13"/>
-      <c r="CC3" s="13"/>
-      <c r="CD3" s="13"/>
-      <c r="CE3" s="13"/>
-      <c r="CF3" s="13"/>
-      <c r="CG3" s="13"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
+      <c r="CG3" s="12"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
-      <c r="CJ3" s="4"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="4"/>
-      <c r="CM3" s="4"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
     </row>
     <row r="4" spans="1:95">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <f>'[1]Источники данных'!C25</f>
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
@@ -1856,66 +1866,66 @@
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
     </row>
     <row r="5" spans="1:95">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
@@ -1951,10 +1961,10 @@
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
-      <c r="CJ5" s="4"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="4"/>
-      <c r="CM5" s="4"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:95">
       <c r="A6" s="1"/>
@@ -2044,10 +2054,10 @@
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
-      <c r="CJ6" s="4"/>
-      <c r="CK6" s="4"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
     </row>
     <row r="7" spans="1:95">
       <c r="A7" s="1"/>
@@ -2137,10 +2147,10 @@
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
-      <c r="CJ7" s="4"/>
-      <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
     </row>
     <row r="8" spans="1:95">
       <c r="A8" s="1"/>
@@ -2230,10 +2240,10 @@
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
-      <c r="CJ8" s="4"/>
-      <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
-      <c r="CM8" s="4"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
     </row>
     <row r="9" spans="1:95">
       <c r="A9" s="1"/>
@@ -2323,10 +2333,10 @@
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
-      <c r="CJ9" s="4"/>
-      <c r="CK9" s="4"/>
-      <c r="CL9" s="4"/>
-      <c r="CM9" s="4"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:95">
       <c r="A10" s="1"/>
@@ -2416,10 +2426,10 @@
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
-      <c r="CJ10" s="4"/>
-      <c r="CK10" s="4"/>
-      <c r="CL10" s="4"/>
-      <c r="CM10" s="4"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
     </row>
     <row r="11" spans="1:95">
       <c r="A11" s="1"/>
@@ -2509,10 +2519,10 @@
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
-      <c r="CJ11" s="4"/>
-      <c r="CK11" s="4"/>
-      <c r="CL11" s="4"/>
-      <c r="CM11" s="4"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
     </row>
     <row r="12" spans="1:95" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="1"/>
@@ -2560,54 +2570,54 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15" t="s">
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="15"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="15"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
-      <c r="BL12" s="15"/>
-      <c r="BM12" s="15"/>
-      <c r="BN12" s="15"/>
-      <c r="BO12" s="15"/>
-      <c r="BP12" s="15"/>
-      <c r="BQ12" s="15"/>
-      <c r="BR12" s="15"/>
-      <c r="BS12" s="15"/>
-      <c r="BT12" s="15"/>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="15"/>
-      <c r="BW12" s="15"/>
-      <c r="BX12" s="15"/>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="15"/>
-      <c r="CA12" s="15"/>
-      <c r="CB12" s="15"/>
-      <c r="CC12" s="15"/>
-      <c r="CD12" s="15"/>
-      <c r="CE12" s="15"/>
-      <c r="CF12" s="15"/>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="15"/>
-      <c r="CI12" s="16"/>
-      <c r="CJ12" s="17"/>
-      <c r="CK12" s="17"/>
-      <c r="CL12" s="17"/>
-      <c r="CM12" s="17"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="7"/>
+      <c r="CJ12" s="8"/>
+      <c r="CK12" s="8"/>
+      <c r="CL12" s="8"/>
+      <c r="CM12" s="8"/>
     </row>
     <row r="13" spans="1:95" ht="21" customHeight="1">
       <c r="A13" s="1"/>
@@ -2655,53 +2665,53 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="16"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
-      <c r="BM13" s="16"/>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="16"/>
-      <c r="BP13" s="16"/>
-      <c r="BQ13" s="16"/>
-      <c r="BR13" s="16"/>
-      <c r="BS13" s="16"/>
-      <c r="BT13" s="16"/>
-      <c r="BU13" s="16"/>
-      <c r="BV13" s="16"/>
-      <c r="BW13" s="16"/>
-      <c r="BX13" s="16"/>
-      <c r="BY13" s="16"/>
-      <c r="BZ13" s="16"/>
-      <c r="CA13" s="16"/>
-      <c r="CB13" s="16"/>
-      <c r="CC13" s="16"/>
-      <c r="CD13" s="16"/>
-      <c r="CE13" s="16"/>
-      <c r="CF13" s="16"/>
-      <c r="CG13" s="16"/>
-      <c r="CH13" s="16"/>
-      <c r="CI13" s="16"/>
-      <c r="CJ13" s="17"/>
-      <c r="CK13" s="17"/>
-      <c r="CL13" s="17"/>
-      <c r="CM13" s="4"/>
-      <c r="CQ13" s="6" t="s">
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7"/>
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+      <c r="CG13" s="7"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="7"/>
+      <c r="CJ13" s="8"/>
+      <c r="CK13" s="8"/>
+      <c r="CL13" s="8"/>
+      <c r="CM13" s="2"/>
+      <c r="CQ13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2751,54 +2761,54 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15" t="s">
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="15"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
-      <c r="BL14" s="15"/>
-      <c r="BM14" s="15"/>
-      <c r="BN14" s="15"/>
-      <c r="BO14" s="15"/>
-      <c r="BP14" s="15"/>
-      <c r="BQ14" s="15"/>
-      <c r="BR14" s="15"/>
-      <c r="BS14" s="15"/>
-      <c r="BT14" s="15"/>
-      <c r="BU14" s="15"/>
-      <c r="BV14" s="15"/>
-      <c r="BW14" s="15"/>
-      <c r="BX14" s="15"/>
-      <c r="BY14" s="15"/>
-      <c r="BZ14" s="15"/>
-      <c r="CA14" s="15"/>
-      <c r="CB14" s="15"/>
-      <c r="CC14" s="15"/>
-      <c r="CD14" s="15"/>
-      <c r="CE14" s="15"/>
-      <c r="CF14" s="15"/>
-      <c r="CG14" s="15"/>
-      <c r="CH14" s="15"/>
-      <c r="CI14" s="15"/>
-      <c r="CJ14" s="17"/>
-      <c r="CK14" s="17"/>
-      <c r="CL14" s="17"/>
-      <c r="CM14" s="4"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="8"/>
+      <c r="CK14" s="8"/>
+      <c r="CL14" s="8"/>
+      <c r="CM14" s="2"/>
     </row>
     <row r="15" spans="1:95" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1"/>
@@ -2846,52 +2856,52 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
-      <c r="AY15" s="15"/>
-      <c r="AZ15" s="15"/>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="15"/>
-      <c r="BC15" s="15"/>
-      <c r="BD15" s="15"/>
-      <c r="BE15" s="15"/>
-      <c r="BF15" s="15"/>
-      <c r="BG15" s="15"/>
-      <c r="BH15" s="15"/>
-      <c r="BI15" s="15"/>
-      <c r="BJ15" s="15"/>
-      <c r="BK15" s="15"/>
-      <c r="BL15" s="15"/>
-      <c r="BM15" s="15"/>
-      <c r="BN15" s="15"/>
-      <c r="BO15" s="15"/>
-      <c r="BP15" s="15"/>
-      <c r="BQ15" s="15"/>
-      <c r="BR15" s="15"/>
-      <c r="BS15" s="15"/>
-      <c r="BT15" s="15"/>
-      <c r="BU15" s="15"/>
-      <c r="BV15" s="15"/>
-      <c r="BW15" s="15"/>
-      <c r="BX15" s="15"/>
-      <c r="BY15" s="15"/>
-      <c r="BZ15" s="15"/>
-      <c r="CA15" s="15"/>
-      <c r="CB15" s="15"/>
-      <c r="CC15" s="15"/>
-      <c r="CD15" s="15"/>
-      <c r="CE15" s="15"/>
-      <c r="CF15" s="15"/>
-      <c r="CG15" s="15"/>
-      <c r="CH15" s="15"/>
-      <c r="CI15" s="15"/>
-      <c r="CJ15" s="17"/>
-      <c r="CK15" s="17"/>
-      <c r="CL15" s="17"/>
-      <c r="CM15" s="4"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="8"/>
+      <c r="CK15" s="8"/>
+      <c r="CL15" s="8"/>
+      <c r="CM15" s="2"/>
     </row>
     <row r="16" spans="1:95" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1"/>
@@ -2939,68 +2949,68 @@
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
-      <c r="AT16" s="18">
+      <c r="AT16" s="10">
         <v>2</v>
       </c>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18">
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10">
         <v>2</v>
       </c>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18">
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10">
         <v>4</v>
       </c>
-      <c r="BA16" s="18"/>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="18">
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10">
         <v>0</v>
       </c>
-      <c r="BD16" s="18"/>
-      <c r="BE16" s="18"/>
-      <c r="BF16" s="18">
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10">
         <v>3</v>
       </c>
-      <c r="BG16" s="18"/>
-      <c r="BH16" s="18"/>
-      <c r="BI16" s="18">
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10">
         <v>0</v>
       </c>
-      <c r="BJ16" s="18"/>
-      <c r="BK16" s="18"/>
-      <c r="BL16" s="15" t="s">
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BM16" s="15"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="15"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
-      <c r="BT16" s="15"/>
-      <c r="BU16" s="15"/>
-      <c r="BV16" s="15"/>
-      <c r="BW16" s="15"/>
-      <c r="BX16" s="15"/>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="15"/>
-      <c r="CC16" s="15"/>
-      <c r="CD16" s="15"/>
-      <c r="CE16" s="15"/>
-      <c r="CF16" s="15"/>
-      <c r="CG16" s="15"/>
-      <c r="CH16" s="15"/>
-      <c r="CI16" s="15"/>
-      <c r="CJ16" s="17"/>
-      <c r="CK16" s="17"/>
-      <c r="CL16" s="17"/>
-      <c r="CM16" s="4"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="8"/>
+      <c r="CK16" s="8"/>
+      <c r="CL16" s="8"/>
+      <c r="CM16" s="2"/>
     </row>
-    <row r="17" spans="1:91" s="5" customFormat="1" ht="20.45" customHeight="1">
+    <row r="17" spans="1:91" ht="20.45" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3088,12 +3098,12 @@
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
-      <c r="CJ17" s="4"/>
-      <c r="CK17" s="4"/>
-      <c r="CL17" s="4"/>
-      <c r="CM17" s="4"/>
+      <c r="CJ17" s="2"/>
+      <c r="CK17" s="2"/>
+      <c r="CL17" s="2"/>
+      <c r="CM17" s="2"/>
     </row>
-    <row r="18" spans="1:91" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:91" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3181,12 +3191,12 @@
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
       <c r="CI18" s="1"/>
-      <c r="CJ18" s="4"/>
-      <c r="CK18" s="4"/>
-      <c r="CL18" s="4"/>
-      <c r="CM18" s="4"/>
+      <c r="CJ18" s="2"/>
+      <c r="CK18" s="2"/>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="2"/>
     </row>
-    <row r="19" spans="1:91" s="5" customFormat="1" ht="6" customHeight="1">
+    <row r="19" spans="1:91" ht="6" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3274,106 +3284,128 @@
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
       <c r="CI19" s="1"/>
-      <c r="CJ19" s="4"/>
-      <c r="CK19" s="4"/>
-      <c r="CL19" s="4"/>
-      <c r="CM19" s="4"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="2"/>
     </row>
-    <row r="20" spans="1:91" s="5" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="19"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
-      <c r="BQ20" s="19"/>
-      <c r="BR20" s="19"/>
-      <c r="BS20" s="19"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="BV20" s="19"/>
-      <c r="BW20" s="19"/>
-      <c r="BX20" s="19"/>
-      <c r="BY20" s="19"/>
-      <c r="BZ20" s="19"/>
-      <c r="CA20" s="19"/>
-      <c r="CB20" s="19"/>
-      <c r="CC20" s="19"/>
-      <c r="CD20" s="19"/>
-      <c r="CE20" s="19"/>
-      <c r="CF20" s="19"/>
-      <c r="CG20" s="19"/>
-      <c r="CH20" s="19"/>
-      <c r="CI20" s="19"/>
-      <c r="CJ20" s="4"/>
-      <c r="CK20" s="4"/>
-      <c r="CL20" s="4"/>
-      <c r="CM20" s="4"/>
+    <row r="20" spans="1:91">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="2"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="2"/>
+      <c r="CJ20" s="2"/>
+      <c r="CK20" s="2"/>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="S1:AE1"/>
+    <mergeCell ref="AF1:AV1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:Z2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AY12:CH12"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BG2:CG2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AZ3"/>
+    <mergeCell ref="BG3:CG3"/>
+    <mergeCell ref="C4:AI4"/>
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="C5:AI5"/>
+    <mergeCell ref="AJ5:AO5"/>
+    <mergeCell ref="AT12:AX12"/>
     <mergeCell ref="AT14:AX14"/>
     <mergeCell ref="AY14:CI14"/>
     <mergeCell ref="AT15:CI15"/>
@@ -3384,28 +3416,6 @@
     <mergeCell ref="BF16:BH16"/>
     <mergeCell ref="BI16:BK16"/>
     <mergeCell ref="BL16:CI16"/>
-    <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="C5:AI5"/>
-    <mergeCell ref="AJ5:AO5"/>
-    <mergeCell ref="AT12:AX12"/>
-    <mergeCell ref="AY12:CH12"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BG2:CG2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AZ3"/>
-    <mergeCell ref="BG3:CG3"/>
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="S1:AE1"/>
-    <mergeCell ref="AF1:AV1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:Z2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AT2:AV2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AO4">
     <cfRule type="expression" dxfId="6" priority="7">
